--- a/medicine/Mort/Décès_en_1929/Décès_en_1929.xlsx
+++ b/medicine/Mort/Décès_en_1929/Décès_en_1929.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1929</t>
+          <t>Décès_en_1929</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1929</t>
+          <t>Décès_en_1929</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Marius-Antoine Barret, peintre et graveur français (° 26 juin 1865).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marius-Antoine Barret, peintre et graveur français (° 26 juin 1865).
 Charles-Théodore Bichet, peintre et aquarelliste français (° 1863).
 André Castaigne, illustrateur français (° 21 janvier 1861).
 Jean-Adolphe Chudant, peintre français (° 5 janvier 1860).
@@ -538,9 +555,43 @@
 Fernand Lematte, peintre français (° 26 juillet 1850).
 George Roux, illustrateur et peintre français (° 1855).
 Raffaele Tafuri, peintre italien (° 27 janvier 1857).
-Émile Georges Weiss, peintre français (° 20 janvier 1861).
-Janvier
-1er janvier : Burton Downing, coureur cycliste américain (° 5 février 1885).
+Émile Georges Weiss, peintre français (° 20 janvier 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er janvier : Burton Downing, coureur cycliste américain (° 5 février 1885).
 3 janvier : Antoni Kozakiewicz, peintre polonais (° 13 juin 1841).
 5 janvier : Frank Hagney, acteur australien (° 24 juillet 1881).
 6 janvier : Henri Lanos, dessinateur, peintre, aquarelliste et illustrateur français (° 19 août 1859).
@@ -553,9 +604,43 @@
 Liang Qichao, universitaire, journaliste, philosophe et réformiste chinois (° 23 février 1873).
 Jeanne Rongier, peintre française (° 27 novembre 1852).
 25 janvier : Oscar Underwood, homme politique américain (° 6 mai 1862).
-26 janvier : Albert Trachsel, architecte, peintre et poète suisse (° 23 décembre 1863).
-Février
-2 février :
+26 janvier : Albert Trachsel, architecte, peintre et poète suisse (° 23 décembre 1863).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février :
 Henri Biva, peintre français (° 23 janvier 1848).
 Charles Frechon, peintre français (° 2 février 1856).
 3 février : Agner Krarup Erlang, mathématicien danois (° 1er janvier 1878).
@@ -570,9 +655,43 @@
 16 février : Hugo Mühlig, peintre allemand (° 9 novembre 1854).
 24 février : André Messager, compositeur et chef d'orchestre français (° 30 décembre 1853).
 25 février : Adolphe Alexandre Lesrel, peintre français (° 19 mai 1839).
-27 février : Hugo von Habermann, peintre allemand (° 14 juin 1849).
-Mars
-4 mars : Ilia Tchachnik, peintre et designer russe puis soviétique (° 9 juillet 1902).
+27 février : Hugo von Habermann, peintre allemand (° 14 juin 1849).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 mars : Ilia Tchachnik, peintre et designer russe puis soviétique (° 9 juillet 1902).
 5 mars : Francesco Paolo Michetti, peintre et photographe italien (° 4 août 1851).
 6 mars : Édouard-Antoine Marsal, peintre et illustrateur français (° 4 juillet 1845).
 8 mars :
@@ -581,9 +700,43 @@
 13 mars : Henry Scott Tuke, peintre britannique (° 2 juin 1858).
 20 mars : Ferdinand Foch, maréchal de France, homme d'État (° 2 octobre 1851).
 22 mars : Auguste Doutrepont, linguiste et académicien belge, aussi militant wallon (° 6 décembre 1865).
-24 mars : Hippolyte Marius Galy, sculpteur et peintre français (° 20 octobre 1847).
-Avril
-2 avril : Louis Vuillemin, musicologue et chef d'orchestre français (° 19 décembre 1879).
+24 mars : Hippolyte Marius Galy, sculpteur et peintre français (° 20 octobre 1847).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Louis Vuillemin, musicologue et chef d'orchestre français (° 19 décembre 1879).
 4 avril : Carl Benz, mécanicien allemand, fondateur de Daimler-Benz AG (° 25 novembre 1844).
 6 avril : Maurice Mahut, peintre et illustrateur français (° 8 août 1878).
 20 avril : Gaston Jobbé-Duval, peintre français (° 27 novembre 1856).
@@ -591,15 +744,83 @@
 Henry Lerolle, peintre et collectionneur français (° 4 octobre 1848).
 Madeleine Woog, peintre suisse (° 23 décembre 1892).
 28 avril : Adolphe Chatillon, religieux et éducateur canadien, vénérable (° 31 octobre 1871).
-30 avril : Marie Antoinette Marcotte, peintre française (° 31 mai 1867).
-Mai
-1er mai : Édouard Vallet, peintre, graveur et dessinateur suisse (° 12 janvier 1876).
+30 avril : Marie Antoinette Marcotte, peintre française (° 31 mai 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er mai : Édouard Vallet, peintre, graveur et dessinateur suisse (° 12 janvier 1876).
 11 mai : Jozef Murgaš, inventeur, peintre, homme politique, collectionneur et prêtre catholique serbe et américain (° 17 février 1864).
 25 mai : Albéric Ruzette, homme politique belge (° 22 juillet 1866).
 28 mai : Barbara Baynton, femme de lettres australienne (° 4 juin 1857).
-? mai : Paul Quinsac, peintre français (° 2 mars 1858).
-Juin
-1er juin : Frédéric de Haenen, peintre et illustrateur néerlandais naturalisé français (° 1853).
+? mai : Paul Quinsac, peintre français (° 2 mars 1858).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Frédéric de Haenen, peintre et illustrateur néerlandais naturalisé français (° 1853).
 4 juin : Désiré Lubin, peintre français (° 20 février 1854).
 5 juin : Harry Turley, homme politique australien (° 24 avril 1859).
 6 juin : Henri Gervex, peintre et pastelliste français (° 10 septembre 1852).
@@ -612,9 +833,43 @@
 25 juin :
 Georges Courteline, dramaturge français (° 25 juin 1858).
 Ernest Laurent, peintre français (° 8 juin 1859).
-30 juin : Joseph Wauters, homme politique belge (° 8 novembre 1875).
-Juillet
-1er juillet :
+30 juin : Joseph Wauters, homme politique belge (° 8 novembre 1875).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet :
 Francisco de Assis Rosa e Silva, homme d'État brésilien (° 4 octobre 1856).
 Wenceslau de Moraes, officier de la marine et écrivain portugais (° 30 mai 1854).
 3 juillet :
@@ -625,25 +880,127 @@
 19 juillet :
 Julian Fałat, peintre et aquarelliste portraitiste et paysagiste polonais (° 30 juillet 1853).
 Fausto Zonaro, peintre italien (° 18 septembre 1854).
-22 juillet : Bror Beckman, compositeur suédois (° 10 février 1866).
-Août
-9 août : Heinrich Zille, graphiste, lithographe, peintre, dessinateur et photographe allemand (° 10 janvier 1858).
+22 juillet : Bror Beckman, compositeur suédois (° 10 février 1866).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9 août : Heinrich Zille, graphiste, lithographe, peintre, dessinateur et photographe allemand (° 10 janvier 1858).
 11 août :
 Henri Allouard, peintre et sculpteur français (° 11 juillet 1844).
 Georges Jules Bertrand, peintre français (° 22 novembre 1849).
 19 août : Serge Diaghilev, l'inventeur (russe), l'animateur et le directeur de la troupe des Ballets russes (° 31 mars 1872).
 24 août : Karel van de Woestijne, écrivain belge (° 10 mars 1878).
-30 août : Florence Culwick, musicienne et cheffe de cœur irlandaise (° 4 novembre 1877).
-Septembre
-4 septembre : Dina Bélanger, religieuse et musicienne canadienne (° 30 avril 1897).
+30 août : Florence Culwick, musicienne et cheffe de cœur irlandaise (° 4 novembre 1877).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>4 septembre : Dina Bélanger, religieuse et musicienne canadienne (° 30 avril 1897).
 15 septembre : Hermann Graedener, compositeur, pédagogue et chef d’orchestre germano-autrichien (° 8 mai 1844).
 18 septembre : Hippolyte Petitjean, peintre français (° 11 septembre 1854).
 22 septembre : Paul-Émile Pajot, marin pêcheur et peintre français (° 17 octobre 1873).
 23 septembre : Louis-Ernest Dubois, cardinal français, archevêque de Paris (° 1er septembre 1856).
 26 septembre : Apcar Baltazar, peintre roumain d'origine arménienne (° 26 février 1880).
-28 septembre : Louis Roth, compositeur d'opérettes et chef d'orchestre autrichien (° 20 avril 1843).
-Octobre
-1er octobre : Antoine Bourdelle, sculpteur et peintre français (° 30 octobre 1861).
+28 septembre : Louis Roth, compositeur d'opérettes et chef d'orchestre autrichien (° 20 avril 1843).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Antoine Bourdelle, sculpteur et peintre français (° 30 octobre 1861).
 3 octobre : Gustav Stresemann, homme politique et chancelier allemand (° 10 mai 1878).
 8 octobre : Jacek Malczewski, peintre polonais (° 15 juillet 1854).
 15 octobre : Léon Delacroix, homme d'État belge (° 27 décembre 1857).
@@ -651,9 +1008,43 @@
 24 octobre : Jean-Louis Daniel, peintre paysagiste français (° 22 janvier 1861).
 26 octobre : Albert Champion, coureur cycliste français (° 5 avril 1878).
 28 octobre : Bernhard von Bülow, homme politique et chancelier allemand (° 3 mai 1849).
-30 octobre : Ovide Musin, violoniste et compositeur belge (° 22 septembre 1854).
-Novembre
-3 novembre : Jan Niecisław Baudouin de Courtenay, linguiste polonais (° 13 mars 1845).
+30 octobre : Ovide Musin, violoniste et compositeur belge (° 22 septembre 1854).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3 novembre : Jan Niecisław Baudouin de Courtenay, linguiste polonais (° 13 mars 1845).
 11 novembre :
 Joseph Beaurredon, religieux catholique, enseignant et écrivain français (° 11 septembre 1929).
 Mieczysław Sołtys, compositeur polonais (° 7 février 1863).
@@ -665,9 +1056,43 @@
 Paul Mathey, peintre et graveur français (° 14 novembre 1844).
 25 novembre : Élisabeth Lacoin, écrivaine française (° 25 décembre 1907).
 26 novembre : George-Daniel de Monfreid, peintre français (° 14 mars 1856).
-28 novembre : Henri Amédée-Wetter, peintre , graveur et illustrateur français (° 9 janvier 1869).
-Décembre
-13 décembre : Rosina Heikel, médecin et féministe finlandaise (° 17 mars 1842).
+28 novembre : Henri Amédée-Wetter, peintre , graveur et illustrateur français (° 9 janvier 1869).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1929</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1929</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>13 décembre : Rosina Heikel, médecin et féministe finlandaise (° 17 mars 1842).
 17 décembre :
 Edoardo Matania, peintre et illustrateur italien (° 31 août 1847).
 Ted Wilde, réalisateur américain (° 16 décembre 1889).
